--- a/Data/HP_costmatrix.xlsx
+++ b/Data/HP_costmatrix.xlsx
@@ -904,523 +904,523 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1429.943303813083</v>
+        <v>1026.320852573986</v>
       </c>
       <c r="D2">
-        <v>1757.96105674464</v>
+        <v>1281.577229190066</v>
       </c>
       <c r="E2">
-        <v>1835.196860028342</v>
+        <v>1359.017594902484</v>
       </c>
       <c r="F2">
-        <v>1790.833157982414</v>
+        <v>1317.018328327174</v>
       </c>
       <c r="G2">
-        <v>1656.103834996778</v>
+        <v>1197.223631565791</v>
       </c>
       <c r="H2">
-        <v>1903.02729623013</v>
+        <v>1453.118293672406</v>
       </c>
       <c r="I2">
-        <v>1726.377608057457</v>
+        <v>1295.792591537266</v>
       </c>
       <c r="J2">
-        <v>1416.720596806819</v>
+        <v>967.345504098228</v>
       </c>
       <c r="K2">
-        <v>1549.057350752421</v>
+        <v>1063.613297911289</v>
       </c>
       <c r="L2">
-        <v>1700.444532550747</v>
+        <v>1252.837318987285</v>
       </c>
       <c r="M2">
-        <v>1820.360901253287</v>
+        <v>1362.572083256511</v>
       </c>
       <c r="N2">
-        <v>1762.874210097655</v>
+        <v>1302.12054081845</v>
       </c>
       <c r="O2">
-        <v>1726.325552987913</v>
+        <v>1282.398170059258</v>
       </c>
       <c r="P2">
-        <v>1527.042671035104</v>
+        <v>1118.735613774055</v>
       </c>
       <c r="Q2">
-        <v>1461.345432096531</v>
+        <v>1058.015002783096</v>
       </c>
       <c r="R2">
-        <v>1882.3806624637</v>
+        <v>1455.407716310945</v>
       </c>
       <c r="S2">
-        <v>1523.76797958435</v>
+        <v>1079.175521406172</v>
       </c>
       <c r="T2">
-        <v>1698.331185051171</v>
+        <v>1262.94143217589</v>
       </c>
       <c r="U2">
-        <v>1684.974647519234</v>
+        <v>1212.203462733136</v>
       </c>
       <c r="V2">
-        <v>1722.686307198271</v>
+        <v>1285.293140871614</v>
       </c>
       <c r="W2">
-        <v>1749.361176365963</v>
+        <v>1290.385604797822</v>
       </c>
       <c r="X2">
-        <v>1537.054466705559</v>
+        <v>1118.818271555785</v>
       </c>
       <c r="Y2">
-        <v>1625.197284323157</v>
+        <v>1180.227726878484</v>
       </c>
       <c r="Z2">
-        <v>1753.656787928551</v>
+        <v>1305.683253715833</v>
       </c>
       <c r="AA2">
-        <v>1665.589722697722</v>
+        <v>1170.942367950078</v>
       </c>
       <c r="AB2">
-        <v>1518.38198757653</v>
+        <v>1021.891581747203</v>
       </c>
       <c r="AC2">
-        <v>1801.156997407152</v>
+        <v>1312.403457295688</v>
       </c>
       <c r="AD2">
-        <v>1621.297367975625</v>
+        <v>1129.636891933665</v>
       </c>
       <c r="AE2">
-        <v>1738.913996369805</v>
+        <v>1252.784586072511</v>
       </c>
       <c r="AF2">
-        <v>1800.721561478167</v>
+        <v>1307.336052247235</v>
       </c>
       <c r="AG2">
-        <v>1562.08233709946</v>
+        <v>1070.217830210248</v>
       </c>
       <c r="AH2">
-        <v>1630.732422587242</v>
+        <v>1133.591595591432</v>
       </c>
       <c r="AI2">
-        <v>1686.224326860781</v>
+        <v>1186.86795743392</v>
       </c>
       <c r="AJ2">
-        <v>1607.767552040761</v>
+        <v>1108.587637228447</v>
       </c>
       <c r="AK2">
-        <v>1817.864111460187</v>
+        <v>1318.170033332297</v>
       </c>
       <c r="AL2">
-        <v>1644.925714106766</v>
+        <v>1151.37153605011</v>
       </c>
       <c r="AM2">
-        <v>1682.899539954995</v>
+        <v>1195.60612567984</v>
       </c>
       <c r="AN2">
-        <v>1577.340177172023</v>
+        <v>1704.678129707658</v>
       </c>
       <c r="AO2">
-        <v>1333.61365612405</v>
+        <v>1515.024031083647</v>
       </c>
       <c r="AP2">
-        <v>1511.098466499006</v>
+        <v>1680.030491171757</v>
       </c>
       <c r="AQ2">
-        <v>1471.079355644117</v>
+        <v>1705.046072966546</v>
       </c>
       <c r="AR2">
-        <v>1656.127541370614</v>
+        <v>1855.184212614971</v>
       </c>
       <c r="AS2">
-        <v>1370.425606881048</v>
+        <v>1527.575950467463</v>
       </c>
       <c r="AT2">
-        <v>1653.927870370115</v>
+        <v>1776.292312884769</v>
       </c>
       <c r="AU2">
-        <v>1584.456914760239</v>
+        <v>1711.097868470786</v>
       </c>
       <c r="AV2">
-        <v>1270.742775242918</v>
+        <v>1445.14681592857</v>
       </c>
       <c r="AW2">
-        <v>1618.7219107735</v>
+        <v>1819.358292143276</v>
       </c>
       <c r="AX2">
-        <v>1300.011911234586</v>
+        <v>1499.862680195337</v>
       </c>
       <c r="AY2">
-        <v>1331.250340676001</v>
+        <v>1562.990926523963</v>
       </c>
       <c r="AZ2">
-        <v>1473.94179874677</v>
+        <v>1593.115133008022</v>
       </c>
       <c r="BA2">
-        <v>1343.877225973799</v>
+        <v>1537.34178207271</v>
       </c>
       <c r="BB2">
-        <v>1561.285710491966</v>
+        <v>1774.043284617563</v>
       </c>
       <c r="BC2">
-        <v>1181.607147216479</v>
+        <v>1314.515371711913</v>
       </c>
       <c r="BD2">
-        <v>1208.094402534782</v>
+        <v>1332.38487540882</v>
       </c>
       <c r="BE2">
-        <v>1157.573442309005</v>
+        <v>1239.924753409689</v>
       </c>
       <c r="BF2">
-        <v>1374.986585558446</v>
+        <v>1476.729294605629</v>
       </c>
       <c r="BG2">
-        <v>1289.767177075065</v>
+        <v>1426.888254350465</v>
       </c>
       <c r="BH2">
-        <v>1116.848887722788</v>
+        <v>1176.670169827769</v>
       </c>
       <c r="BI2">
-        <v>1148.794495300097</v>
+        <v>1305.596859159764</v>
       </c>
       <c r="BJ2">
-        <v>1209.952320288857</v>
+        <v>1313.12541231648</v>
       </c>
       <c r="BK2">
-        <v>1291.940220129308</v>
+        <v>1422.403391616344</v>
       </c>
       <c r="BL2">
-        <v>1464.810815892043</v>
+        <v>1538.31811263085</v>
       </c>
       <c r="BM2">
-        <v>1331.897715490821</v>
+        <v>1478.798070216154</v>
       </c>
       <c r="BN2">
-        <v>1136.939133634934</v>
+        <v>1265.914104831309</v>
       </c>
       <c r="BO2">
-        <v>1261.76887387096</v>
+        <v>1338.669063512718</v>
       </c>
       <c r="BP2">
-        <v>1239.105426465973</v>
+        <v>1320.894646425381</v>
       </c>
       <c r="BQ2">
-        <v>1738.788434019093</v>
+        <v>1410.263277100166</v>
       </c>
       <c r="BR2">
-        <v>1615.403427825145</v>
+        <v>1261.70491868089</v>
       </c>
       <c r="BS2">
-        <v>1993.186357975339</v>
+        <v>1597.64939696482</v>
       </c>
       <c r="BT2">
-        <v>1514.27698523762</v>
+        <v>1181.767796058687</v>
       </c>
       <c r="BU2">
-        <v>1537.916812890949</v>
+        <v>1195.26504489851</v>
       </c>
       <c r="BV2">
-        <v>1720.645545196078</v>
+        <v>1393.866703567795</v>
       </c>
       <c r="BW2">
-        <v>1673.56768930741</v>
+        <v>1279.464854937804</v>
       </c>
       <c r="BX2">
-        <v>1651.500347223192</v>
+        <v>1161.48088392416</v>
       </c>
       <c r="BY2">
-        <v>1438.067396049557</v>
+        <v>957.0366881532224</v>
       </c>
       <c r="BZ2">
-        <v>1603.204639892685</v>
+        <v>1126.579961381741</v>
       </c>
       <c r="CA2">
-        <v>1611.134122701282</v>
+        <v>1121.174225853189</v>
       </c>
       <c r="CB2">
-        <v>1759.470343386299</v>
+        <v>1282.798413339278</v>
       </c>
       <c r="CC2">
-        <v>1748.077998733315</v>
+        <v>1294.125987455547</v>
       </c>
       <c r="CD2">
-        <v>1894.512676734941</v>
+        <v>1413.688012925962</v>
       </c>
       <c r="CE2">
-        <v>1542.742849420458</v>
+        <v>1060.351266091771</v>
       </c>
       <c r="CF2">
-        <v>975.4983069905777</v>
+        <v>987.2219758304348</v>
       </c>
       <c r="CG2">
-        <v>941.1301182079112</v>
+        <v>1033.826389785658</v>
       </c>
       <c r="CH2">
-        <v>617.5948709219966</v>
+        <v>680.707544213106</v>
       </c>
       <c r="CI2">
-        <v>699.6519491591799</v>
+        <v>743.9063987430043</v>
       </c>
       <c r="CJ2">
-        <v>930.4202400398159</v>
+        <v>828.533072704513</v>
       </c>
       <c r="CK2">
-        <v>859.666889853654</v>
+        <v>910.5500466914575</v>
       </c>
       <c r="CL2">
-        <v>608.1006232835388</v>
+        <v>786.4856438878865</v>
       </c>
       <c r="CM2">
-        <v>903.9207530663965</v>
+        <v>985.595870714739</v>
       </c>
       <c r="CN2">
-        <v>971.6412121896894</v>
+        <v>1033.514801470116</v>
       </c>
       <c r="CO2">
-        <v>680.7247631609614</v>
+        <v>841.6442420823926</v>
       </c>
       <c r="CP2">
-        <v>795.9109630433513</v>
+        <v>953.9666912249278</v>
       </c>
       <c r="CQ2">
-        <v>596.8081981671869</v>
+        <v>891.340187367325</v>
       </c>
       <c r="CR2">
-        <v>472.5346064431106</v>
+        <v>331.1479588266604</v>
       </c>
       <c r="CS2">
-        <v>426.4594855322712</v>
+        <v>181.6848374422902</v>
       </c>
       <c r="CT2">
-        <v>426.0661234473662</v>
+        <v>184.6713149097996</v>
       </c>
       <c r="CU2">
-        <v>387.6464594128701</v>
+        <v>266.1031497275594</v>
       </c>
       <c r="CV2">
-        <v>122.5460557520424</v>
+        <v>455.370709087398</v>
       </c>
       <c r="CW2">
-        <v>304.0809833118652</v>
+        <v>198.6077141196831</v>
       </c>
       <c r="CX2">
-        <v>424.685189181101</v>
+        <v>149.4153520830525</v>
       </c>
       <c r="CY2">
-        <v>331.545381575288</v>
+        <v>181.9532878604462</v>
       </c>
       <c r="CZ2">
-        <v>221.715138275001</v>
+        <v>388.1745231397173</v>
       </c>
       <c r="DA2">
-        <v>392.4914530924069</v>
+        <v>169.7985691110091</v>
       </c>
       <c r="DB2">
-        <v>283.0348703184629</v>
+        <v>336.4033962726537</v>
       </c>
       <c r="DC2">
-        <v>1103.774332514769</v>
+        <v>1389.034947659802</v>
       </c>
       <c r="DD2">
-        <v>1299.498475252919</v>
+        <v>1438.506733014555</v>
       </c>
       <c r="DE2">
-        <v>1088.692302694105</v>
+        <v>1323.1589658737</v>
       </c>
       <c r="DF2">
-        <v>1236.094341293711</v>
+        <v>1375.384456005777</v>
       </c>
       <c r="DG2">
-        <v>856.8462578808491</v>
+        <v>967.4653040809269</v>
       </c>
       <c r="DH2">
-        <v>1043.306527581589</v>
+        <v>1260.428333115505</v>
       </c>
       <c r="DI2">
-        <v>1054.033959951576</v>
+        <v>1216.98813404293</v>
       </c>
       <c r="DJ2">
-        <v>991.1331872481657</v>
+        <v>1238.547662985673</v>
       </c>
       <c r="DK2">
-        <v>957.2242519641951</v>
+        <v>1197.205311651877</v>
       </c>
       <c r="DL2">
-        <v>1093.065837989158</v>
+        <v>1232.314385844099</v>
       </c>
       <c r="DM2">
-        <v>1039.37162207074</v>
+        <v>1222.139516991292</v>
       </c>
       <c r="DN2">
-        <v>933.9953423251516</v>
+        <v>1108.7040940639</v>
       </c>
       <c r="DO2">
-        <v>868.1122246566341</v>
+        <v>496.4281880693434</v>
       </c>
       <c r="DP2">
-        <v>625.5109190514167</v>
+        <v>382.3768207596744</v>
       </c>
       <c r="DQ2">
-        <v>745.0425997729108</v>
+        <v>468.905887427899</v>
       </c>
       <c r="DR2">
-        <v>739.3459824111208</v>
+        <v>434.5503176475173</v>
       </c>
       <c r="DS2">
-        <v>881.7705199491708</v>
+        <v>439.3738352060792</v>
       </c>
       <c r="DT2">
-        <v>496.3490225025237</v>
+        <v>235.7577288886426</v>
       </c>
       <c r="DU2">
-        <v>557.4713023419397</v>
+        <v>234.1137435732154</v>
       </c>
       <c r="DV2">
-        <v>834.9436652047847</v>
+        <v>404.3011552020705</v>
       </c>
       <c r="DW2">
-        <v>608.1286863266989</v>
+        <v>366.6407356718912</v>
       </c>
       <c r="DX2">
-        <v>646.6429684250719</v>
+        <v>318.1798806280929</v>
       </c>
       <c r="DY2">
-        <v>805.2484411036772</v>
+        <v>348.8594694281555</v>
       </c>
       <c r="DZ2">
-        <v>1458.42740188009</v>
+        <v>1437.98395057078</v>
       </c>
       <c r="EA2">
-        <v>1334.397744242811</v>
+        <v>1316.260777136138</v>
       </c>
       <c r="EB2">
-        <v>1478.598976605055</v>
+        <v>1439.082467608724</v>
       </c>
       <c r="EC2">
-        <v>1390.437466537572</v>
+        <v>1427.490758326087</v>
       </c>
       <c r="ED2">
-        <v>1314.855980720507</v>
+        <v>1290.165856662472</v>
       </c>
       <c r="EE2">
-        <v>1414.403262502765</v>
+        <v>1359.823481401066</v>
       </c>
       <c r="EF2">
-        <v>1409.182070359489</v>
+        <v>1362.367719165114</v>
       </c>
       <c r="EG2">
-        <v>1434.101162308172</v>
+        <v>1446.388796237696</v>
       </c>
       <c r="EH2">
-        <v>1319.341548314173</v>
+        <v>1322.133664252615</v>
       </c>
       <c r="EI2">
-        <v>1283.471000920353</v>
+        <v>1242.257704479082</v>
       </c>
       <c r="EJ2">
-        <v>1451.877972751485</v>
+        <v>1426.235271607066</v>
       </c>
       <c r="EK2">
-        <v>1239.753677042607</v>
+        <v>1217.104802121534</v>
       </c>
       <c r="EL2">
-        <v>652.8639856609522</v>
+        <v>1093.640916113302</v>
       </c>
       <c r="EM2">
-        <v>638.6617469546344</v>
+        <v>1013.092091554209</v>
       </c>
       <c r="EN2">
-        <v>502.3047082359731</v>
+        <v>888.5834343444212</v>
       </c>
       <c r="EO2">
-        <v>352.4686177275294</v>
+        <v>778.9966397187219</v>
       </c>
       <c r="EP2">
-        <v>605.097711841403</v>
+        <v>1095.167835234321</v>
       </c>
       <c r="EQ2">
-        <v>571.350434683207</v>
+        <v>984.5936754453835</v>
       </c>
       <c r="ER2">
-        <v>591.0627170628005</v>
+        <v>977.0455886340437</v>
       </c>
       <c r="ES2">
-        <v>595.5782969645462</v>
+        <v>1025.787850828815</v>
       </c>
       <c r="ET2">
-        <v>385.3685410721844</v>
+        <v>779.6403929457795</v>
       </c>
       <c r="EU2">
-        <v>612.9364669105552</v>
+        <v>1026.458081072922</v>
       </c>
       <c r="EV2">
-        <v>849.4148398936948</v>
+        <v>1191.048463156599</v>
       </c>
       <c r="EW2">
-        <v>1702.775144497225</v>
+        <v>1367.204971666661</v>
       </c>
       <c r="EX2">
-        <v>1761.168675881279</v>
+        <v>1438.158233159674</v>
       </c>
       <c r="EY2">
-        <v>2018.06119454918</v>
+        <v>1668.654804700095</v>
       </c>
       <c r="EZ2">
-        <v>1977.970754793093</v>
+        <v>1609.738351931006</v>
       </c>
       <c r="FA2">
-        <v>1812.262043228387</v>
+        <v>1507.286244371923</v>
       </c>
       <c r="FB2">
-        <v>1545.065469602253</v>
+        <v>1287.370245902958</v>
       </c>
       <c r="FC2">
-        <v>1909.845489276428</v>
+        <v>1569.978138146719</v>
       </c>
       <c r="FD2">
-        <v>1769.340777017784</v>
+        <v>1400.689016866055</v>
       </c>
       <c r="FE2">
-        <v>1733.202787243123</v>
+        <v>1402.333438725846</v>
       </c>
       <c r="FF2">
-        <v>1619.499077045084</v>
+        <v>1177.320932955384</v>
       </c>
       <c r="FG2">
-        <v>1618.877797191777</v>
+        <v>1167.770368457279</v>
       </c>
       <c r="FH2">
-        <v>1449.181271554198</v>
+        <v>1018.439429135765</v>
       </c>
       <c r="FI2">
-        <v>1855.681434533456</v>
+        <v>1396.291808100126</v>
       </c>
       <c r="FJ2">
-        <v>1580.631255445106</v>
+        <v>1167.321458372426</v>
       </c>
       <c r="FK2">
-        <v>1854.600760864275</v>
+        <v>1421.343480885196</v>
       </c>
       <c r="FL2">
-        <v>1527.888475004808</v>
+        <v>1116.399331052403</v>
       </c>
       <c r="FM2">
-        <v>1510.38628478179</v>
+        <v>1086.075445133481</v>
       </c>
       <c r="FN2">
-        <v>1463.148474275816</v>
+        <v>1031.218547618972</v>
       </c>
       <c r="FO2">
-        <v>1706.912942154353</v>
+        <v>1253.550499999583</v>
       </c>
       <c r="FP2">
-        <v>1675.47421072808</v>
+        <v>1217.522610210858</v>
       </c>
       <c r="FQ2">
-        <v>1521.308248893607</v>
+        <v>1043.784793742115</v>
       </c>
       <c r="FR2">
-        <v>1708.695441829041</v>
+        <v>1276.074999953691</v>
       </c>
       <c r="FS2">
-        <v>1340.585171149968</v>
+        <v>904.5808634229278</v>
       </c>
     </row>
     <row r="3" spans="1:175">
@@ -1428,7 +1428,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1429.943303813083</v>
+        <v>1026.320852573986</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1955,7 +1955,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1757.96105674464</v>
+        <v>1281.577229190066</v>
       </c>
       <c r="C4">
         <v>522.683701763542</v>
@@ -2482,7 +2482,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1835.196860028342</v>
+        <v>1359.017594902484</v>
       </c>
       <c r="C5">
         <v>576.8469636427652</v>
@@ -3009,7 +3009,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1790.833157982414</v>
+        <v>1317.018328327174</v>
       </c>
       <c r="C6">
         <v>529.0011744718418</v>
@@ -3536,7 +3536,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1656.103834996778</v>
+        <v>1197.223631565791</v>
       </c>
       <c r="C7">
         <v>352.3453396239983</v>
@@ -4063,7 +4063,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1903.02729623013</v>
+        <v>1453.118293672406</v>
       </c>
       <c r="C8">
         <v>518.7519185668905</v>
@@ -4590,7 +4590,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1726.377608057457</v>
+        <v>1295.792591537266</v>
       </c>
       <c r="C9">
         <v>313.5684304251248</v>
@@ -5117,7 +5117,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1416.720596806819</v>
+        <v>967.345504098228</v>
       </c>
       <c r="C10">
         <v>214.1306830090812</v>
@@ -5644,7 +5644,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1549.057350752421</v>
+        <v>1063.613297911289</v>
       </c>
       <c r="C11">
         <v>488.598870551269</v>
@@ -6171,7 +6171,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1700.444532550747</v>
+        <v>1252.837318987285</v>
       </c>
       <c r="C12">
         <v>336.1149068838949</v>
@@ -6698,7 +6698,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1820.360901253287</v>
+        <v>1362.572083256511</v>
       </c>
       <c r="C13">
         <v>472.1349819438532</v>
@@ -7225,7 +7225,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1762.874210097655</v>
+        <v>1302.12054081845</v>
       </c>
       <c r="C14">
         <v>438.2714055659207</v>
@@ -7752,7 +7752,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1726.325552987913</v>
+        <v>1282.398170059258</v>
       </c>
       <c r="C15">
         <v>1434.183380009787</v>
@@ -8279,7 +8279,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1527.042671035104</v>
+        <v>1118.735613774055</v>
       </c>
       <c r="C16">
         <v>1462.183118949123</v>
@@ -8806,7 +8806,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1461.345432096531</v>
+        <v>1058.015002783096</v>
       </c>
       <c r="C17">
         <v>1439.579683004662</v>
@@ -9333,7 +9333,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1882.3806624637</v>
+        <v>1455.407716310945</v>
       </c>
       <c r="C18">
         <v>1627.190632394836</v>
@@ -9860,7 +9860,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1523.76797958435</v>
+        <v>1079.175521406172</v>
       </c>
       <c r="C19">
         <v>1304.667034774393</v>
@@ -10387,7 +10387,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1698.331185051171</v>
+        <v>1262.94143217589</v>
       </c>
       <c r="C20">
         <v>1457.984020682383</v>
@@ -10914,7 +10914,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1684.974647519234</v>
+        <v>1212.203462733136</v>
       </c>
       <c r="C21">
         <v>1233.565039833712</v>
@@ -11441,7 +11441,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1722.686307198271</v>
+        <v>1285.293140871614</v>
       </c>
       <c r="C22">
         <v>1464.593565330148</v>
@@ -11968,7 +11968,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1749.361176365963</v>
+        <v>1290.385604797822</v>
       </c>
       <c r="C23">
         <v>1365.460522645943</v>
@@ -12495,7 +12495,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1537.054466705559</v>
+        <v>1118.818271555785</v>
       </c>
       <c r="C24">
         <v>1429.389429431</v>
@@ -13022,7 +13022,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1625.197284323157</v>
+        <v>1180.227726878484</v>
       </c>
       <c r="C25">
         <v>1363.615479594301</v>
@@ -13549,7 +13549,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1753.656787928551</v>
+        <v>1305.683253715833</v>
       </c>
       <c r="C26">
         <v>1431.096522510251</v>
@@ -14076,7 +14076,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1665.589722697722</v>
+        <v>1170.942367950078</v>
       </c>
       <c r="C27">
         <v>1001.902404627769</v>
@@ -14603,7 +14603,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1518.38198757653</v>
+        <v>1021.891581747203</v>
       </c>
       <c r="C28">
         <v>898.4468775706495</v>
@@ -15130,7 +15130,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1801.156997407152</v>
+        <v>1312.403457295688</v>
       </c>
       <c r="C29">
         <v>1161.8652877647</v>
@@ -15657,7 +15657,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1621.297367975625</v>
+        <v>1129.636891933665</v>
       </c>
       <c r="C30">
         <v>1021.6406240627</v>
@@ -16184,7 +16184,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1738.913996369805</v>
+        <v>1252.784586072511</v>
       </c>
       <c r="C31">
         <v>1151.790781907761</v>
@@ -16711,7 +16711,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1800.721561478167</v>
+        <v>1307.336052247235</v>
       </c>
       <c r="C32">
         <v>1101.027658968588</v>
@@ -17238,7 +17238,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1562.08233709946</v>
+        <v>1070.217830210248</v>
       </c>
       <c r="C33">
         <v>989.4807924748824</v>
@@ -17765,7 +17765,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1630.732422587242</v>
+        <v>1133.591595591432</v>
       </c>
       <c r="C34">
         <v>936.6702581668189</v>
@@ -18292,7 +18292,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1686.224326860781</v>
+        <v>1186.86795743392</v>
       </c>
       <c r="C35">
         <v>776.8312668448818</v>
@@ -18819,7 +18819,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1607.767552040761</v>
+        <v>1108.587637228447</v>
       </c>
       <c r="C36">
         <v>866.5281633848351</v>
@@ -19346,7 +19346,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1817.864111460187</v>
+        <v>1318.170033332297</v>
       </c>
       <c r="C37">
         <v>956.4577449135478</v>
@@ -19873,7 +19873,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1644.925714106766</v>
+        <v>1151.37153605011</v>
       </c>
       <c r="C38">
         <v>1007.840068834008</v>
@@ -20400,7 +20400,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1682.899539954995</v>
+        <v>1195.60612567984</v>
       </c>
       <c r="C39">
         <v>1106.467929669448</v>
@@ -20927,7 +20927,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1577.340177172023</v>
+        <v>1704.678129707658</v>
       </c>
       <c r="C40">
         <v>1650.319544187132</v>
@@ -21454,7 +21454,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1333.61365612405</v>
+        <v>1515.024031083647</v>
       </c>
       <c r="C41">
         <v>1622.026482125465</v>
@@ -21981,7 +21981,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1511.098466499006</v>
+        <v>1680.030491171757</v>
       </c>
       <c r="C42">
         <v>1714.845866314328</v>
@@ -22508,7 +22508,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1471.079355644117</v>
+        <v>1705.046072966546</v>
       </c>
       <c r="C43">
         <v>1861.690187096109</v>
@@ -23035,7 +23035,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1656.127541370614</v>
+        <v>1855.184212614971</v>
       </c>
       <c r="C44">
         <v>1907.74930053663</v>
@@ -23562,7 +23562,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1370.425606881048</v>
+        <v>1527.575950467463</v>
       </c>
       <c r="C45">
         <v>1584.189921944658</v>
@@ -24089,7 +24089,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1653.927870370115</v>
+        <v>1776.292312884769</v>
       </c>
       <c r="C46">
         <v>1693.071909054753</v>
@@ -24616,7 +24616,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1584.456914760239</v>
+        <v>1711.097868470786</v>
       </c>
       <c r="C47">
         <v>1653.59836253572</v>
@@ -25143,7 +25143,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1270.742775242918</v>
+        <v>1445.14681592857</v>
       </c>
       <c r="C48">
         <v>1561.836570669142</v>
@@ -25670,7 +25670,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1618.7219107735</v>
+        <v>1819.358292143276</v>
       </c>
       <c r="C49">
         <v>1883.030556869771</v>
@@ -26197,7 +26197,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1300.011911234586</v>
+        <v>1499.862680195337</v>
       </c>
       <c r="C50">
         <v>1646.575714946781</v>
@@ -26724,7 +26724,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1331.250340676001</v>
+        <v>1562.990926523963</v>
       </c>
       <c r="C51">
         <v>1751.802641918023</v>
@@ -27251,7 +27251,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1473.94179874677</v>
+        <v>1593.115133008022</v>
       </c>
       <c r="C52">
         <v>1555.118845390526</v>
@@ -27778,7 +27778,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1343.877225973799</v>
+        <v>1537.34178207271</v>
       </c>
       <c r="C53">
         <v>1660.453313394727</v>
@@ -28305,7 +28305,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1561.285710491966</v>
+        <v>1774.043284617563</v>
       </c>
       <c r="C54">
         <v>1872.335580690393</v>
@@ -28832,7 +28832,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1181.607147216479</v>
+        <v>1314.515371711913</v>
       </c>
       <c r="C55">
         <v>1403.849218211652</v>
@@ -29359,7 +29359,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1208.094402534782</v>
+        <v>1332.38487540882</v>
       </c>
       <c r="C56">
         <v>1398.319402469067</v>
@@ -29886,7 +29886,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1157.573442309005</v>
+        <v>1239.924753409689</v>
       </c>
       <c r="C57">
         <v>1269.990503860162</v>
@@ -30413,7 +30413,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1374.986585558446</v>
+        <v>1476.729294605629</v>
       </c>
       <c r="C58">
         <v>1443.676160540875</v>
@@ -30940,7 +30940,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1289.767177075065</v>
+        <v>1426.888254350465</v>
       </c>
       <c r="C59">
         <v>1479.872657353316</v>
@@ -31467,7 +31467,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1116.848887722788</v>
+        <v>1176.670169827769</v>
       </c>
       <c r="C60">
         <v>1197.877874567828</v>
@@ -31994,7 +31994,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1148.794495300097</v>
+        <v>1305.596859159764</v>
       </c>
       <c r="C61">
         <v>1442.216545888101</v>
@@ -32521,7 +32521,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1209.952320288857</v>
+        <v>1313.12541231648</v>
       </c>
       <c r="C62">
         <v>1347.967784431987</v>
@@ -33048,7 +33048,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1291.940220129308</v>
+        <v>1422.403391616344</v>
       </c>
       <c r="C63">
         <v>1464.438713550032</v>
@@ -33575,7 +33575,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1464.810815892043</v>
+        <v>1538.31811263085</v>
       </c>
       <c r="C64">
         <v>1427.967599620746</v>
@@ -34102,7 +34102,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1331.897715490821</v>
+        <v>1478.798070216154</v>
       </c>
       <c r="C65">
         <v>1531.943199885184</v>
@@ -34629,7 +34629,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1136.939133634934</v>
+        <v>1265.914104831309</v>
       </c>
       <c r="C66">
         <v>1369.163379543877</v>
@@ -35156,7 +35156,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1261.76887387096</v>
+        <v>1338.669063512718</v>
       </c>
       <c r="C67">
         <v>1312.66158663176</v>
@@ -35683,7 +35683,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1239.105426465973</v>
+        <v>1320.894646425381</v>
       </c>
       <c r="C68">
         <v>1312.044546819133</v>
@@ -36210,7 +36210,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1738.788434019093</v>
+        <v>1410.263277100166</v>
       </c>
       <c r="C69">
         <v>464.2157409178837</v>
@@ -36737,7 +36737,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1615.403427825145</v>
+        <v>1261.70491868089</v>
       </c>
       <c r="C70">
         <v>292.8115570580214</v>
@@ -37264,7 +37264,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1993.186357975339</v>
+        <v>1597.64939696482</v>
       </c>
       <c r="C71">
         <v>571.6412067116021</v>
@@ -37791,7 +37791,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1514.27698523762</v>
+        <v>1181.767796058687</v>
       </c>
       <c r="C72">
         <v>295.2690123425421</v>
@@ -38318,7 +38318,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1537.916812890949</v>
+        <v>1195.26504489851</v>
       </c>
       <c r="C73">
         <v>274.2932978426106</v>
@@ -38845,7 +38845,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>1720.645545196078</v>
+        <v>1393.866703567795</v>
       </c>
       <c r="C74">
         <v>454.4410697033127</v>
@@ -39372,7 +39372,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>1673.56768930741</v>
+        <v>1279.464854937804</v>
       </c>
       <c r="C75">
         <v>253.5028023373764</v>
@@ -39899,7 +39899,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>1651.500347223192</v>
+        <v>1161.48088392416</v>
       </c>
       <c r="C76">
         <v>581.8823867156979</v>
@@ -40426,7 +40426,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>1438.067396049557</v>
+        <v>957.0366881532224</v>
       </c>
       <c r="C77">
         <v>421.959263376642</v>
@@ -40953,7 +40953,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>1603.204639892685</v>
+        <v>1126.579961381741</v>
       </c>
       <c r="C78">
         <v>434.1060030442036</v>
@@ -41480,7 +41480,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>1611.134122701282</v>
+        <v>1121.174225853189</v>
       </c>
       <c r="C79">
         <v>562.0440667420618</v>
@@ -42007,7 +42007,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>1759.470343386299</v>
+        <v>1282.798413339278</v>
       </c>
       <c r="C80">
         <v>525.7064482530836</v>
@@ -42534,7 +42534,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>1748.077998733315</v>
+        <v>1294.125987455547</v>
       </c>
       <c r="C81">
         <v>397.8902893180523</v>
@@ -43061,7 +43061,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>1894.512676734941</v>
+        <v>1413.688012925962</v>
       </c>
       <c r="C82">
         <v>653.7155287756937</v>
@@ -43588,7 +43588,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>1542.742849420458</v>
+        <v>1060.351266091771</v>
       </c>
       <c r="C83">
         <v>457.7183242128057</v>
@@ -44115,7 +44115,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>975.4983069905777</v>
+        <v>987.2219758304348</v>
       </c>
       <c r="C84">
         <v>1944.056021527512</v>
@@ -44642,7 +44642,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>941.1301182079112</v>
+        <v>1033.826389785658</v>
       </c>
       <c r="C85">
         <v>2024.036951731495</v>
@@ -45169,7 +45169,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>617.5948709219966</v>
+        <v>680.707544213106</v>
       </c>
       <c r="C86">
         <v>1688.909992345476</v>
@@ -45696,7 +45696,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>699.6519491591799</v>
+        <v>743.9063987430043</v>
       </c>
       <c r="C87">
         <v>1740.530786583329</v>
@@ -46223,7 +46223,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>930.4202400398159</v>
+        <v>828.533072704513</v>
       </c>
       <c r="C88">
         <v>1736.796151199678</v>
@@ -46750,7 +46750,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>859.666889853654</v>
+        <v>910.5500466914575</v>
       </c>
       <c r="C89">
         <v>1893.565128611277</v>
@@ -47277,7 +47277,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>608.1006232835388</v>
+        <v>786.4856438878865</v>
       </c>
       <c r="C90">
         <v>1809.585296208234</v>
@@ -47804,7 +47804,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>903.9207530663965</v>
+        <v>985.595870714739</v>
       </c>
       <c r="C91">
         <v>1974.858596419667</v>
@@ -48331,7 +48331,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>971.6412121896894</v>
+        <v>1033.514801470116</v>
       </c>
       <c r="C92">
         <v>2010.881561337121</v>
@@ -48858,7 +48858,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>680.7247631609614</v>
+        <v>841.6442420823926</v>
       </c>
       <c r="C93">
         <v>1860.600471458769</v>
@@ -49385,7 +49385,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>795.9109630433513</v>
+        <v>953.9666912249278</v>
       </c>
       <c r="C94">
         <v>1968.061430641134</v>
@@ -49912,7 +49912,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>596.8081981671869</v>
+        <v>891.340187367325</v>
       </c>
       <c r="C95">
         <v>1916.317012112853</v>
@@ -50439,7 +50439,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>472.5346064431106</v>
+        <v>331.1479588266604</v>
       </c>
       <c r="C96">
         <v>967.9288752212694</v>
@@ -50966,7 +50966,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>426.4594855322712</v>
+        <v>181.6848374422902</v>
       </c>
       <c r="C97">
         <v>1010.985626921083</v>
@@ -51493,7 +51493,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>426.0661234473662</v>
+        <v>184.6713149097996</v>
       </c>
       <c r="C98">
         <v>1010.723988545479</v>
@@ -52020,7 +52020,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>387.6464594128701</v>
+        <v>266.1031497275594</v>
       </c>
       <c r="C99">
         <v>1042.635145289523</v>
@@ -52547,7 +52547,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>122.5460557520424</v>
+        <v>455.370709087398</v>
       </c>
       <c r="C100">
         <v>1327.826563961025</v>
@@ -53074,7 +53074,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>304.0809833118652</v>
+        <v>198.6077141196831</v>
       </c>
       <c r="C101">
         <v>1192.007492735627</v>
@@ -53601,7 +53601,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>424.685189181101</v>
+        <v>149.4153520830525</v>
       </c>
       <c r="C102">
         <v>1022.197044396088</v>
@@ -54128,7 +54128,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>331.545381575288</v>
+        <v>181.9532878604462</v>
       </c>
       <c r="C103">
         <v>1192.664007587875</v>
@@ -54655,7 +54655,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>221.715138275001</v>
+        <v>388.1745231397173</v>
       </c>
       <c r="C104">
         <v>1221.287616584693</v>
@@ -55182,7 +55182,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>392.4914530924069</v>
+        <v>169.7985691110091</v>
       </c>
       <c r="C105">
         <v>1050.592036286008</v>
@@ -55709,7 +55709,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>283.0348703184629</v>
+        <v>336.4033962726537</v>
       </c>
       <c r="C106">
         <v>1358.028386542478</v>
@@ -56236,7 +56236,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>1103.774332514769</v>
+        <v>1389.034947659802</v>
       </c>
       <c r="C107">
         <v>1727.559607933237</v>
@@ -56763,7 +56763,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>1299.498475252919</v>
+        <v>1438.506733014555</v>
       </c>
       <c r="C108">
         <v>1490.82763536504</v>
@@ -57290,7 +57290,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>1088.692302694105</v>
+        <v>1323.1589658737</v>
       </c>
       <c r="C109">
         <v>1591.967118701545</v>
@@ -57817,7 +57817,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>1236.094341293711</v>
+        <v>1375.384456005777</v>
       </c>
       <c r="C110">
         <v>1451.915706325025</v>
@@ -58344,7 +58344,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>856.8462578808491</v>
+        <v>967.4653040809269</v>
       </c>
       <c r="C111">
         <v>1202.082070451608</v>
@@ -58871,7 +58871,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>1043.306527581589</v>
+        <v>1260.428333115505</v>
       </c>
       <c r="C112">
         <v>1522.093991019927</v>
@@ -59398,7 +59398,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>1054.033959951576</v>
+        <v>1216.98813404293</v>
       </c>
       <c r="C113">
         <v>1402.680676238759</v>
@@ -59925,7 +59925,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>991.1331872481657</v>
+        <v>1238.547662985673</v>
       </c>
       <c r="C114">
         <v>1560.764424967204</v>
@@ -60452,7 +60452,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>957.2242519641951</v>
+        <v>1197.205311651877</v>
       </c>
       <c r="C115">
         <v>1522.90996752399</v>
@@ -60979,7 +60979,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>1093.065837989158</v>
+        <v>1232.314385844099</v>
       </c>
       <c r="C116">
         <v>1369.250902881248</v>
@@ -61506,7 +61506,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>1039.37162207074</v>
+        <v>1222.139516991292</v>
       </c>
       <c r="C117">
         <v>1440.008449567019</v>
@@ -62033,7 +62033,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>933.9953423251516</v>
+        <v>1108.7040940639</v>
       </c>
       <c r="C118">
         <v>1365.818711904424</v>
@@ -62560,7 +62560,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>868.1122246566341</v>
+        <v>496.4281880693434</v>
       </c>
       <c r="C119">
         <v>561.9062056371669</v>
@@ -63087,7 +63087,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>625.5109190514167</v>
+        <v>382.3768207596744</v>
       </c>
       <c r="C120">
         <v>814.980618814681</v>
@@ -63614,7 +63614,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>745.0425997729108</v>
+        <v>468.905887427899</v>
       </c>
       <c r="C121">
         <v>701.6971139554053</v>
@@ -64141,7 +64141,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>739.3459824111208</v>
+        <v>434.5503176475173</v>
       </c>
       <c r="C122">
         <v>696.2859673103229</v>
@@ -64668,7 +64668,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>881.7705199491708</v>
+        <v>439.3738352060792</v>
       </c>
       <c r="C123">
         <v>588.2363624453111</v>
@@ -65195,7 +65195,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>496.3490225025237</v>
+        <v>235.7577288886426</v>
       </c>
       <c r="C124">
         <v>934.2523129043444</v>
@@ -65722,7 +65722,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>557.4713023419397</v>
+        <v>234.1137435732154</v>
       </c>
       <c r="C125">
         <v>875.8491476458601</v>
@@ -66249,7 +66249,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>834.9436652047847</v>
+        <v>404.3011552020705</v>
       </c>
       <c r="C126">
         <v>622.3111220575065</v>
@@ -66776,7 +66776,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>608.1286863266989</v>
+        <v>366.6407356718912</v>
       </c>
       <c r="C127">
         <v>830.3185968759152</v>
@@ -67303,7 +67303,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>646.6429684250719</v>
+        <v>318.1798806280929</v>
       </c>
       <c r="C128">
         <v>783.4808311235976</v>
@@ -67830,7 +67830,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>805.2484411036772</v>
+        <v>348.8594694281555</v>
       </c>
       <c r="C129">
         <v>680.5807021377586</v>
@@ -68357,7 +68357,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>1458.42740188009</v>
+        <v>1437.98395057078</v>
       </c>
       <c r="C130">
         <v>2329.597783499808</v>
@@ -68884,7 +68884,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>1334.397744242811</v>
+        <v>1316.260777136138</v>
       </c>
       <c r="C131">
         <v>2220.685513516455</v>
@@ -69411,7 +69411,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>1478.598976605055</v>
+        <v>1439.082467608724</v>
       </c>
       <c r="C132">
         <v>2314.661981732949</v>
@@ -69938,7 +69938,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>1390.437466537572</v>
+        <v>1427.490758326087</v>
       </c>
       <c r="C133">
         <v>2362.052845210493</v>
@@ -70465,7 +70465,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>1314.855980720507</v>
+        <v>1290.165856662472</v>
       </c>
       <c r="C134">
         <v>2192.112148792549</v>
@@ -70992,7 +70992,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>1414.403262502765</v>
+        <v>1359.823481401066</v>
       </c>
       <c r="C135">
         <v>2230.168938951191</v>
@@ -71519,7 +71519,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>1409.182070359489</v>
+        <v>1362.367719165114</v>
       </c>
       <c r="C136">
         <v>2239.163228696853</v>
@@ -72046,7 +72046,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>1434.101162308172</v>
+        <v>1446.388796237696</v>
       </c>
       <c r="C137">
         <v>2362.448976942033</v>
@@ -72573,7 +72573,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>1319.341548314173</v>
+        <v>1322.133664252615</v>
       </c>
       <c r="C138">
         <v>2241.363721305213</v>
@@ -73100,7 +73100,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>1283.471000920353</v>
+        <v>1242.257704479082</v>
       </c>
       <c r="C139">
         <v>2136.331812121935</v>
@@ -73627,7 +73627,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>1451.877972751485</v>
+        <v>1426.235271607066</v>
       </c>
       <c r="C140">
         <v>2314.649398849672</v>
@@ -74154,7 +74154,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>1239.753677042607</v>
+        <v>1217.104802121534</v>
       </c>
       <c r="C141">
         <v>2127.963390863154</v>
@@ -74681,7 +74681,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>652.8639856609522</v>
+        <v>1093.640916113302</v>
       </c>
       <c r="C142">
         <v>1789.116173350642</v>
@@ -75208,7 +75208,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>638.6617469546344</v>
+        <v>1013.092091554209</v>
       </c>
       <c r="C143">
         <v>1620.81425255528</v>
@@ -75735,7 +75735,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>502.3047082359731</v>
+        <v>888.5834343444212</v>
       </c>
       <c r="C144">
         <v>1557.379584846662</v>
@@ -76262,7 +76262,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>352.4686177275294</v>
+        <v>778.9966397187219</v>
       </c>
       <c r="C145">
         <v>1539.673892092287</v>
@@ -76789,7 +76789,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>605.097711841403</v>
+        <v>1095.167835234321</v>
       </c>
       <c r="C146">
         <v>1905.326820599455</v>
@@ -77316,7 +77316,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>571.350434683207</v>
+        <v>984.5936754453835</v>
       </c>
       <c r="C147">
         <v>1660.787915262998</v>
@@ -77843,7 +77843,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>591.0627170628005</v>
+        <v>977.0455886340437</v>
       </c>
       <c r="C148">
         <v>1614.204950170822</v>
@@ -78370,7 +78370,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>595.5782969645462</v>
+        <v>1025.787850828815</v>
       </c>
       <c r="C149">
         <v>1718.368425412791</v>
@@ -78897,7 +78897,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>385.3685410721844</v>
+        <v>779.6403929457795</v>
       </c>
       <c r="C150">
         <v>1501.240660050592</v>
@@ -79424,7 +79424,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>612.9364669105552</v>
+        <v>1026.458081072922</v>
       </c>
       <c r="C151">
         <v>1691.159734355818</v>
@@ -79951,7 +79951,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>849.4148398936948</v>
+        <v>1191.048463156599</v>
       </c>
       <c r="C152">
         <v>1688.540814405509</v>
@@ -80478,7 +80478,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>1702.775144497225</v>
+        <v>1367.204971666661</v>
       </c>
       <c r="C153">
         <v>414.8713924107257</v>
@@ -81005,7 +81005,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>1761.168675881279</v>
+        <v>1438.158233159674</v>
       </c>
       <c r="C154">
         <v>498.1386559067208</v>
@@ -81532,7 +81532,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>2018.06119454918</v>
+        <v>1668.654804700095</v>
       </c>
       <c r="C155">
         <v>666.4144133019013</v>
@@ -82059,7 +82059,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>1977.970754793093</v>
+        <v>1609.738351931006</v>
       </c>
       <c r="C156">
         <v>592.2342564486796</v>
@@ -82586,7 +82586,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>1812.262043228387</v>
+        <v>1507.286244371923</v>
       </c>
       <c r="C157">
         <v>590.949239264324</v>
@@ -83113,7 +83113,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>1545.065469602253</v>
+        <v>1287.370245902958</v>
       </c>
       <c r="C158">
         <v>550.9076781367755</v>
@@ -83640,7 +83640,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>1909.845489276428</v>
+        <v>1569.978138146719</v>
       </c>
       <c r="C159">
         <v>585.3564568357456</v>
@@ -84167,7 +84167,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>1769.340777017784</v>
+        <v>1400.689016866055</v>
       </c>
       <c r="C160">
         <v>390.2521334477519</v>
@@ -84694,7 +84694,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>1733.202787243123</v>
+        <v>1402.333438725846</v>
       </c>
       <c r="C161">
         <v>453.028943688376</v>
@@ -85221,7 +85221,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>1619.499077045084</v>
+        <v>1177.320932955384</v>
       </c>
       <c r="C162">
         <v>254.3829802088143</v>
@@ -85748,7 +85748,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>1618.877797191777</v>
+        <v>1167.770368457279</v>
       </c>
       <c r="C163">
         <v>290.9107682858029</v>
@@ -86275,7 +86275,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>1449.181271554198</v>
+        <v>1018.439429135765</v>
       </c>
       <c r="C164">
         <v>119.8413095713898</v>
@@ -86802,7 +86802,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>1855.681434533456</v>
+        <v>1396.291808100126</v>
       </c>
       <c r="C165">
         <v>508.1484440247755</v>
@@ -87329,7 +87329,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>1580.631255445106</v>
+        <v>1167.321458372426</v>
       </c>
       <c r="C166">
         <v>152.9726584744793</v>
@@ -87856,7 +87856,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>1854.600760864275</v>
+        <v>1421.343480885196</v>
       </c>
       <c r="C167">
         <v>439.0754938414049</v>
@@ -88383,7 +88383,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>1527.888475004808</v>
+        <v>1116.399331052403</v>
       </c>
       <c r="C168">
         <v>100.6199153176918</v>
@@ -88910,7 +88910,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>1510.38628478179</v>
+        <v>1086.075445133481</v>
       </c>
       <c r="C169">
         <v>115.9604163461016</v>
@@ -89437,7 +89437,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>1463.148474275816</v>
+        <v>1031.218547618972</v>
       </c>
       <c r="C170">
         <v>127.5384485820047</v>
@@ -89964,7 +89964,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>1706.912942154353</v>
+        <v>1253.550499999583</v>
       </c>
       <c r="C171">
         <v>363.2423809869318</v>
@@ -90491,7 +90491,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>1675.47421072808</v>
+        <v>1217.522610210858</v>
       </c>
       <c r="C172">
         <v>360.8011944698711</v>
@@ -91018,7 +91018,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>1521.308248893607</v>
+        <v>1043.784793742115</v>
       </c>
       <c r="C173">
         <v>409.7883005389953</v>
@@ -91545,7 +91545,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>1708.695441829041</v>
+        <v>1276.074999953691</v>
       </c>
       <c r="C174">
         <v>301.1697504432646</v>
@@ -92072,7 +92072,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>1340.585171149968</v>
+        <v>904.5808634229278</v>
       </c>
       <c r="C175">
         <v>174.4412240599797</v>
